--- a/SPCS10RSA-DELTAS.xlsx
+++ b/SPCS10RSA-DELTAS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="SPCS10RSA (2).csv" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>p(gain)</t>
   </si>
   <si>
-    <t>Trial</t>
-  </si>
-  <si>
     <t>Gain or Loss</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t>Annually</t>
+  </si>
+  <si>
+    <t>Month</t>
   </si>
 </sst>
 </file>
@@ -2432,11 +2432,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2100177912"/>
-        <c:axId val="-2100174904"/>
+        <c:axId val="-2114191352"/>
+        <c:axId val="-2114188392"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="-2100177912"/>
+        <c:axId val="-2114191352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2446,14 +2446,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2100174904"/>
+        <c:crossAx val="-2114188392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2100174904"/>
+        <c:axId val="-2114188392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2464,7 +2464,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2100177912"/>
+        <c:crossAx val="-2114191352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2845,8 +2845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J360"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2864,7 +2864,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>5</v>
@@ -2971,7 +2971,7 @@
         <v>1.0027299999999999E-2</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="10">
         <f>SUMIF(C:C, "&lt;0",C:C ) /F2</f>
@@ -2991,7 +2991,7 @@
         <v>9.6270000000000001E-3</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="10">
         <f>SUMIF(C:C, "&gt;0",C:C )  / F4</f>
@@ -3059,16 +3059,16 @@
         <v>1.06368E-2</v>
       </c>
       <c r="E13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="G13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3087,15 +3087,15 @@
       </c>
       <c r="F14" t="str">
         <f ca="1">IF(RAND()&lt;$F$5, "UP", "DOWN")</f>
-        <v>UP</v>
-      </c>
-      <c r="G14" s="10" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="G14" s="10">
         <f ca="1">IF(F14="DOWN", RANDBETWEEN($F$7*1000000, 0)/1000000, "" )</f>
+        <v>-5.738E-3</v>
+      </c>
+      <c r="H14" s="10" t="str">
+        <f ca="1">IF(F14="UP", RANDBETWEEN(0, $F$8*1000000)/1000000, "" )</f>
         <v/>
-      </c>
-      <c r="H14" s="10">
-        <f ca="1">IF(F14="UP", RANDBETWEEN(0, $F$8*1000000)/1000000, "" )</f>
-        <v>4.0280000000000003E-3</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3122,7 +3122,7 @@
       </c>
       <c r="H15" s="10">
         <f ca="1">IF(F15="UP", RANDBETWEEN(0, $F$8*1000000)/1000000, "" )</f>
-        <v>6.28E-3</v>
+        <v>6.5649999999999997E-3</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3141,15 +3141,15 @@
       </c>
       <c r="F16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>UP</v>
-      </c>
-      <c r="G16" s="10" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="G16" s="10">
         <f t="shared" ca="1" si="2"/>
+        <v>-8.2000000000000001E-5</v>
+      </c>
+      <c r="H16" s="10" t="str">
+        <f ca="1">IF(F16="UP", RANDBETWEEN(0, $F$8*1000000)/1000000, "" )</f>
         <v/>
-      </c>
-      <c r="H16" s="10">
-        <f ca="1">IF(F16="UP", RANDBETWEEN(0, $F$8*1000000)/1000000, "" )</f>
-        <v>1.4580000000000001E-3</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3168,15 +3168,15 @@
       </c>
       <c r="F17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>UP</v>
-      </c>
-      <c r="G17" s="10" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="G17" s="10">
         <f ca="1">IF(F17="DOWN", RANDBETWEEN($F$7*1000000, 0)/1000000, "" )</f>
+        <v>-1.7979999999999999E-3</v>
+      </c>
+      <c r="H17" s="10" t="str">
+        <f t="shared" ref="H17:H38" ca="1" si="3">IF(F17="UP", RANDBETWEEN(0, $F$8*1000000)/1000000, "" )</f>
         <v/>
-      </c>
-      <c r="H17" s="10">
-        <f t="shared" ref="H17:H38" ca="1" si="3">IF(F17="UP", RANDBETWEEN(0, $F$8*1000000)/1000000, "" )</f>
-        <v>5.4010000000000004E-3</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3195,15 +3195,15 @@
       </c>
       <c r="F18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>DOWN</v>
-      </c>
-      <c r="G18" s="10">
+        <v>UP</v>
+      </c>
+      <c r="G18" s="10" t="str">
         <f ca="1">IF(F18="DOWN", RANDBETWEEN($F$7*1000000, 0)/1000000, "" )</f>
-        <v>-3.3509999999999998E-3</v>
-      </c>
-      <c r="H18" s="10" t="str">
+        <v/>
+      </c>
+      <c r="H18" s="10">
         <f ca="1">IF(F18="UP", RANDBETWEEN(0, $F$8*1000000)/1000000, "" )</f>
-        <v/>
+        <v>4.8000000000000001E-5</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="H19" s="10">
         <f ca="1">IF(F19="UP", RANDBETWEEN(0, $F$8*1000000)/1000000, "" )</f>
-        <v>3.107E-3</v>
+        <v>2.081E-3</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3257,7 +3257,7 @@
       </c>
       <c r="H20" s="10">
         <f ca="1">IF(F20="UP", RANDBETWEEN(0, $F$8*1000000)/1000000, "" )</f>
-        <v>8.5300000000000003E-4</v>
+        <v>3.715E-3</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3276,15 +3276,15 @@
       </c>
       <c r="F21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>UP</v>
-      </c>
-      <c r="G21" s="10" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="G21" s="10">
         <f t="shared" ca="1" si="2"/>
+        <v>-3.64E-3</v>
+      </c>
+      <c r="H21" s="10" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v/>
-      </c>
-      <c r="H21" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.2199999999999999E-4</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3303,15 +3303,15 @@
       </c>
       <c r="F22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>UP</v>
-      </c>
-      <c r="G22" s="10" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="G22" s="10">
         <f t="shared" ca="1" si="2"/>
+        <v>-1.008E-3</v>
+      </c>
+      <c r="H22" s="10" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v/>
-      </c>
-      <c r="H22" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.124E-3</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3338,7 +3338,7 @@
       </c>
       <c r="H23" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>2.957E-3</v>
+        <v>6.051E-3</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3357,15 +3357,15 @@
       </c>
       <c r="F24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>UP</v>
-      </c>
-      <c r="G24" s="10" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="G24" s="10">
         <f ca="1">IF(F24="DOWN", RANDBETWEEN($F$7*1000000, 0)/1000000, "" )</f>
+        <v>-1.4779999999999999E-3</v>
+      </c>
+      <c r="H24" s="10" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v/>
-      </c>
-      <c r="H24" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.6200000000000005E-4</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3384,15 +3384,15 @@
       </c>
       <c r="F25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>DOWN</v>
-      </c>
-      <c r="G25" s="10">
+        <v>UP</v>
+      </c>
+      <c r="G25" s="10" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.8389999999999999E-3</v>
-      </c>
-      <c r="H25" s="10" t="str">
+        <v/>
+      </c>
+      <c r="H25" s="10">
         <f ca="1">IF(F25="UP", RANDBETWEEN(0, $F$8*1000000)/1000000, "" )</f>
-        <v/>
+        <v>5.5050000000000003E-3</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3419,7 +3419,7 @@
       </c>
       <c r="H26" s="10">
         <f ca="1">IF(F26="UP", RANDBETWEEN(0, $F$8*1000000)/1000000, "" )</f>
-        <v>4.8989999999999997E-3</v>
+        <v>5.5579999999999996E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="H27" s="10">
         <f ca="1">IF(F27="UP", RANDBETWEEN(0, $F$8*1000000)/1000000, "" )</f>
-        <v>4.4029999999999998E-3</v>
+        <v>3.3210000000000002E-3</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3465,15 +3465,15 @@
       </c>
       <c r="F28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>UP</v>
-      </c>
-      <c r="G28" s="10" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="G28" s="10">
         <f t="shared" ca="1" si="2"/>
+        <v>-4.0899999999999999E-3</v>
+      </c>
+      <c r="H28" s="10" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v/>
-      </c>
-      <c r="H28" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.973E-3</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3492,15 +3492,15 @@
       </c>
       <c r="F29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>DOWN</v>
-      </c>
-      <c r="G29" s="10">
+        <v>UP</v>
+      </c>
+      <c r="G29" s="10" t="str">
         <f ca="1">IF(F29="DOWN", RANDBETWEEN($F$7*1000000, 0)/1000000, "" )</f>
-        <v>-5.313E-3</v>
-      </c>
-      <c r="H29" s="10" t="str">
+        <v/>
+      </c>
+      <c r="H29" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>3.3249999999999998E-3</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="H30" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0859999999999999E-3</v>
+        <v>3.156E-3</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3554,7 +3554,7 @@
       </c>
       <c r="H31" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>6.8199999999999997E-3</v>
+        <v>3.0469999999999998E-3</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="H32" s="10">
         <f ca="1">IF(F32="UP", RANDBETWEEN(0, $F$8*1000000)/1000000, "" )</f>
-        <v>5.7390000000000002E-3</v>
+        <v>4.5319999999999996E-3</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3600,15 +3600,15 @@
       </c>
       <c r="F33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>UP</v>
-      </c>
-      <c r="G33" s="10" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="G33" s="10">
         <f t="shared" ca="1" si="2"/>
+        <v>-8.4400000000000002E-4</v>
+      </c>
+      <c r="H33" s="10" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v/>
-      </c>
-      <c r="H33" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.4640000000000001E-3</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3627,15 +3627,15 @@
       </c>
       <c r="F34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>UP</v>
-      </c>
-      <c r="G34" s="10" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="G34" s="10">
         <f t="shared" ca="1" si="2"/>
+        <v>-4.2839999999999996E-3</v>
+      </c>
+      <c r="H34" s="10" t="str">
+        <f ca="1">IF(F34="UP", RANDBETWEEN(0, $F$8*1000000)/1000000, "" )</f>
         <v/>
-      </c>
-      <c r="H34" s="10">
-        <f ca="1">IF(F34="UP", RANDBETWEEN(0, $F$8*1000000)/1000000, "" )</f>
-        <v>2.9129999999999998E-3</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="H35" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>2.64E-3</v>
+        <v>2.3509999999999998E-3</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="H36" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>3.7980000000000002E-3</v>
+        <v>2.313E-3</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3708,15 +3708,15 @@
       </c>
       <c r="F37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>UP</v>
-      </c>
-      <c r="G37" s="10" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="G37" s="10">
         <f t="shared" ca="1" si="2"/>
+        <v>-4.0379999999999999E-3</v>
+      </c>
+      <c r="H37" s="10" t="str">
+        <f ca="1">IF(F37="UP", RANDBETWEEN(0, $F$8*1000000)/1000000, "" )</f>
         <v/>
-      </c>
-      <c r="H37" s="10">
-        <f ca="1">IF(F37="UP", RANDBETWEEN(0, $F$8*1000000)/1000000, "" )</f>
-        <v>1.2849999999999999E-3</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3743,7 +3743,7 @@
       </c>
       <c r="H38" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>4.9569999999999996E-3</v>
+        <v>4.3150000000000003E-3</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3766,7 +3766,7 @@
       </c>
       <c r="G39" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>-4.5779999999999996E-3</v>
+        <v>-5.5469999999999998E-3</v>
       </c>
       <c r="H39" s="10" t="str">
         <f t="shared" ref="H39:H73" ca="1" si="4">IF(F39="UP", RANDBETWEEN(0, $F$8*1000000)/1000000, "" )</f>
@@ -3797,7 +3797,7 @@
       </c>
       <c r="H40" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1019999999999998E-3</v>
+        <v>6.8999999999999997E-4</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3816,15 +3816,15 @@
       </c>
       <c r="F41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>DOWN</v>
-      </c>
-      <c r="G41" s="10">
+        <v>UP</v>
+      </c>
+      <c r="G41" s="10" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>-5.3800000000000002E-3</v>
-      </c>
-      <c r="H41" s="10" t="str">
+        <v/>
+      </c>
+      <c r="H41" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>1.5319999999999999E-3</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3851,7 +3851,7 @@
       </c>
       <c r="H42" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>2.5500000000000002E-3</v>
+        <v>5.4599999999999996E-3</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3878,7 +3878,7 @@
       </c>
       <c r="H43" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>5.5989999999999998E-3</v>
+        <v>3.947E-3</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3905,7 +3905,7 @@
       </c>
       <c r="H44" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>1.1709999999999999E-3</v>
+        <v>1.836E-3</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3932,7 +3932,7 @@
       </c>
       <c r="H45" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>2.617E-3</v>
+        <v>2.2260000000000001E-3</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3955,7 +3955,7 @@
       </c>
       <c r="G46" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.0430000000000001E-3</v>
+        <v>-1.32E-3</v>
       </c>
       <c r="H46" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -3982,7 +3982,7 @@
       </c>
       <c r="G47" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>-2.5460000000000001E-3</v>
+        <v>-4.0020000000000003E-3</v>
       </c>
       <c r="H47" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -4005,15 +4005,15 @@
       </c>
       <c r="F48" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>DOWN</v>
-      </c>
-      <c r="G48" s="10">
+        <v>UP</v>
+      </c>
+      <c r="G48" s="10" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>-3.0969999999999999E-3</v>
-      </c>
-      <c r="H48" s="10" t="str">
+        <v/>
+      </c>
+      <c r="H48" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>2.7590000000000002E-3</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -4040,7 +4040,7 @@
       </c>
       <c r="H49" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>3.29E-3</v>
+        <v>5.6610000000000002E-3</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -4059,15 +4059,15 @@
       </c>
       <c r="F50" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>DOWN</v>
-      </c>
-      <c r="G50" s="10">
+        <v>UP</v>
+      </c>
+      <c r="G50" s="10" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>-4.6959999999999997E-3</v>
-      </c>
-      <c r="H50" s="10" t="str">
+        <v/>
+      </c>
+      <c r="H50" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>9.5699999999999995E-4</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -4086,15 +4086,15 @@
       </c>
       <c r="F51" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>DOWN</v>
-      </c>
-      <c r="G51" s="10">
+        <v>UP</v>
+      </c>
+      <c r="G51" s="10" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.4799999999999999E-4</v>
-      </c>
-      <c r="H51" s="10" t="str">
+        <v/>
+      </c>
+      <c r="H51" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>2.5399999999999999E-4</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -4113,15 +4113,15 @@
       </c>
       <c r="F52" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>DOWN</v>
-      </c>
-      <c r="G52" s="10">
+        <v>UP</v>
+      </c>
+      <c r="G52" s="10" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.2049999999999999E-3</v>
-      </c>
-      <c r="H52" s="10" t="str">
+        <v/>
+      </c>
+      <c r="H52" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>3.8549999999999999E-3</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -4148,7 +4148,7 @@
       </c>
       <c r="H53" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>4.535E-3</v>
+        <v>2.6220000000000002E-3</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -4170,8 +4170,8 @@
         <v>DOWN</v>
       </c>
       <c r="G54" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>-8.5000000000000006E-5</v>
+        <f ca="1">IF(F54="DOWN", RANDBETWEEN($F$7*1000000, 0)/1000000, "" )</f>
+        <v>-4.4650000000000002E-3</v>
       </c>
       <c r="H54" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -4202,7 +4202,7 @@
       </c>
       <c r="H55" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>2.114E-3</v>
+        <v>4.8979999999999996E-3</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4221,15 +4221,15 @@
       </c>
       <c r="F56" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>DOWN</v>
-      </c>
-      <c r="G56" s="10">
+        <v>UP</v>
+      </c>
+      <c r="G56" s="10" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>-8.5999999999999998E-4</v>
-      </c>
-      <c r="H56" s="10" t="str">
+        <v/>
+      </c>
+      <c r="H56" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>5.71E-4</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -4248,15 +4248,15 @@
       </c>
       <c r="F57" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>DOWN</v>
-      </c>
-      <c r="G57" s="10">
+        <v>UP</v>
+      </c>
+      <c r="G57" s="10" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>-5.006E-3</v>
-      </c>
-      <c r="H57" s="10" t="str">
+        <v/>
+      </c>
+      <c r="H57" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>3.3969999999999998E-3</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4283,7 +4283,7 @@
       </c>
       <c r="H58" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3140000000000001E-3</v>
+        <v>4.9569999999999996E-3</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4302,15 +4302,15 @@
       </c>
       <c r="F59" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>UP</v>
-      </c>
-      <c r="G59" s="10" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="G59" s="10">
         <f t="shared" ca="1" si="2"/>
+        <v>-1.477E-3</v>
+      </c>
+      <c r="H59" s="10" t="str">
+        <f ca="1">IF(F59="UP", RANDBETWEEN(0, $F$8*1000000)/1000000, "" )</f>
         <v/>
-      </c>
-      <c r="H59" s="10">
-        <f ca="1">IF(F59="UP", RANDBETWEEN(0, $F$8*1000000)/1000000, "" )</f>
-        <v>1.05E-4</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="H60" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>6.3010000000000002E-3</v>
+        <v>3.4819999999999999E-3</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4364,7 +4364,7 @@
       </c>
       <c r="H61" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>1.9849999999999998E-3</v>
+        <v>1.423E-3</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4383,15 +4383,15 @@
       </c>
       <c r="F62" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>DOWN</v>
-      </c>
-      <c r="G62" s="10">
+        <v>UP</v>
+      </c>
+      <c r="G62" s="10" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>-3.993E-3</v>
-      </c>
-      <c r="H62" s="10" t="str">
+        <v/>
+      </c>
+      <c r="H62" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>2.9799999999999998E-4</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4418,7 +4418,7 @@
       </c>
       <c r="H63" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>9.1500000000000001E-4</v>
+        <v>5.8250000000000003E-3</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4445,7 +4445,7 @@
       </c>
       <c r="H64" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>6.698E-3</v>
+        <v>6.8069999999999997E-3</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -4464,15 +4464,15 @@
       </c>
       <c r="F65" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>DOWN</v>
-      </c>
-      <c r="G65" s="10">
+        <v>UP</v>
+      </c>
+      <c r="G65" s="10" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>-4.7410000000000004E-3</v>
-      </c>
-      <c r="H65" s="10" t="str">
+        <v/>
+      </c>
+      <c r="H65" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>2.539E-3</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -4499,7 +4499,7 @@
       </c>
       <c r="H66" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>2.2360000000000001E-3</v>
+        <v>2.879E-3</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -4526,7 +4526,7 @@
       </c>
       <c r="H67" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>2.581E-3</v>
+        <v>1.885E-3</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="H68" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>1.8680000000000001E-3</v>
+        <v>6.685E-3</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -4580,7 +4580,7 @@
       </c>
       <c r="H69" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>5.8339999999999998E-3</v>
+        <v>6.6509999999999998E-3</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -4599,15 +4599,15 @@
       </c>
       <c r="F70" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>UP</v>
-      </c>
-      <c r="G70" s="10" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="G70" s="10">
         <f t="shared" ca="1" si="2"/>
+        <v>-5.7429999999999998E-3</v>
+      </c>
+      <c r="H70" s="10" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v/>
-      </c>
-      <c r="H70" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.9989999999999999E-3</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -4634,7 +4634,7 @@
       </c>
       <c r="H71" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>7.2800000000000002E-4</v>
+        <v>4.4299999999999999E-3</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -4653,15 +4653,15 @@
       </c>
       <c r="F72" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>UP</v>
-      </c>
-      <c r="G72" s="10" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="G72" s="10">
         <f t="shared" ca="1" si="2"/>
+        <v>-9.1E-4</v>
+      </c>
+      <c r="H72" s="10" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v/>
-      </c>
-      <c r="H72" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.1909999999999998E-3</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -4688,7 +4688,7 @@
       </c>
       <c r="H73" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>6.3470000000000002E-3</v>
+        <v>3.1970000000000002E-3</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -4715,18 +4715,18 @@
         <v>-5.2019999999999996E-4</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H75" s="11">
         <f ca="1">SUM(G14:H38)</f>
-        <v>6.9065999999999989E-2</v>
+        <v>2.8883000000000002E-2</v>
       </c>
       <c r="I75" s="11">
         <f ca="1">H75/(E73/12)</f>
-        <v>1.3813199999999998E-2</v>
+        <v>5.7766000000000007E-3</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:10">
